--- a/docs/table/table_result_juris_tcu_sparse_impact.xlsx
+++ b/docs/table/table_result_juris_tcu_sparse_impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fontes\ind-ir\docs\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A30763-5737-467A-9712-79B6EC47957B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1EE1C3-F0FA-4411-AC0B-04189198679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15870" yWindow="-6015" windowWidth="15990" windowHeight="24840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>NDCG@10</t>
   </si>
@@ -125,7 +125,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,11 +232,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3FAF0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD8F0D2"/>
       </patternFill>
     </fill>
@@ -266,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -555,11 +550,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -570,93 +578,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="27" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="23" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="25" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="27" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="28" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="22" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -964,410 +975,399 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="5.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="6.08984375" customWidth="1"/>
+    <col min="3" max="4" width="5.81640625" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="35">
         <v>54.991999999999997</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="35">
         <v>82.94</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="9">
         <v>12.92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="27"/>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23">
+      <c r="E4" s="34"/>
+      <c r="F4" s="36">
         <v>83.194000000000003</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="10">
         <v>13.067</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="27"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="25">
+      <c r="E5" s="34"/>
+      <c r="F5" s="37">
         <v>84.3</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="10">
         <v>13.067</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="29" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="27"/>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="26">
+      <c r="E6" s="34"/>
+      <c r="F6" s="38">
         <v>83.289000000000001</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="28">
+      <c r="E7" s="34"/>
+      <c r="F7" s="39">
         <v>85.046999999999997</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="12">
         <v>12.933</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
+      <c r="C8" s="27"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="40">
         <v>55.582000000000001</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="41">
         <v>85.787000000000006</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="13">
         <v>13.733000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="42">
         <v>55.718000000000004</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="43">
         <v>85.738</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="14">
         <v>13.532999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="36">
+      <c r="E10" s="34"/>
+      <c r="F10" s="44">
         <v>83.790999999999997</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="53"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C11" s="27"/>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="37">
+      <c r="E11" s="34"/>
+      <c r="F11" s="45">
         <v>84.754999999999995</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="53"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="1" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C12" s="28"/>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="38">
+      <c r="E12" s="34"/>
+      <c r="F12" s="46">
         <v>84.887</v>
       </c>
-      <c r="G12" s="27"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="53"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="26" t="s">
         <v>10</v>
+      </c>
+      <c r="C13" s="27">
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="39">
+      <c r="E13" s="34"/>
+      <c r="F13" s="47">
         <v>86.382000000000005</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="15">
         <v>13.292999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="53"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="33">
+      <c r="E14" s="34"/>
+      <c r="F14" s="42">
         <v>86.852000000000004</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="16">
         <v>13.347</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="53"/>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="48">
+        <v>85.311999999999998</v>
+      </c>
+      <c r="G15" s="17">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="26">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="49">
+        <v>84.378</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="50">
+        <v>84.156000000000006</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="51">
+        <v>83.417000000000002</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="52">
+        <v>83.55</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="53">
+        <v>82.992000000000004</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="24"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="52">
+        <v>83.06</v>
+      </c>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="25"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="54">
         <v>83.281000000000006</v>
       </c>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="53"/>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="42">
-        <v>85.311999999999998</v>
-      </c>
-      <c r="G16" s="43">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="53"/>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="44">
-        <v>84.378</v>
-      </c>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="53"/>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="45">
-        <v>84.156000000000006</v>
-      </c>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="53"/>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="46">
-        <v>83.417000000000002</v>
-      </c>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="53"/>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="47">
-        <v>83.55</v>
-      </c>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="53"/>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="48">
-        <v>82.992000000000004</v>
-      </c>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="54"/>
-      <c r="B22" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50">
-        <v>83.06</v>
-      </c>
-      <c r="G22" s="51"/>
+      <c r="G22" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B22"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A22"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
